--- a/ilin_R1_by_R2 (1 by 2)1000.xlsx
+++ b/ilin_R1_by_R2 (1 by 2)1000.xlsx
@@ -9,6 +9,7 @@
     <sheet name="ilin" r:id="rId3" sheetId="1"/>
     <sheet name="ilin_pert" r:id="rId4" sheetId="2"/>
     <sheet name="ilin_pert_2" r:id="rId5" sheetId="3"/>
+    <sheet name="lin" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -361,6 +362,155 @@
         <v>-0.07166206755112375</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.51285930408472</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.9045770223814935</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.3977204121953304</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.018551157290287</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.8001307587134345</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.784081180284992</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.022801369947008</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.582257694815012</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.545496890774482</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.017068603998208</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.128593040847202</v>
+      </c>
+      <c r="L3" t="n">
+        <v>19.045770223814934</v>
+      </c>
+      <c r="M3" t="n">
+        <v>23.977204121953307</v>
+      </c>
+      <c r="N3" t="n">
+        <v>30.18551157290287</v>
+      </c>
+      <c r="O3" t="n">
+        <v>38.00130758713434</v>
+      </c>
+      <c r="P3" t="n">
+        <v>47.84081180284991</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>60.22801369947008</v>
+      </c>
+      <c r="R3" t="n">
+        <v>75.82257694815011</v>
+      </c>
+      <c r="S3" t="n">
+        <v>95.45496890774481</v>
+      </c>
+      <c r="T3" t="n">
+        <v>120.17068603998207</v>
+      </c>
+      <c r="U3" t="n">
+        <v>151.285930408472</v>
+      </c>
+      <c r="V3" t="n">
+        <v>190.45770223814935</v>
+      </c>
+      <c r="W3" t="n">
+        <v>239.77204121953307</v>
+      </c>
+      <c r="X3" t="n">
+        <v>301.8551157290287</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>380.01307587134346</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>478.40811802849913</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>602.2801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>758.2257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>954.5496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1201.7068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1512.8593040847202</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1904.5770223814934</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2397.7204121953305</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3018.551157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3800.1307587134343</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -670,6 +820,155 @@
       </c>
       <c r="AW2" t="n">
         <v>-0.07166066863465742</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.51285930408472</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.9045770223814935</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.3977204121953304</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.018551157290287</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.8001307587134345</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.784081180284992</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.022801369947008</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.582257694815012</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.545496890774482</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.017068603998208</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.128593040847202</v>
+      </c>
+      <c r="L3" t="n">
+        <v>19.045770223814934</v>
+      </c>
+      <c r="M3" t="n">
+        <v>23.977204121953307</v>
+      </c>
+      <c r="N3" t="n">
+        <v>30.18551157290287</v>
+      </c>
+      <c r="O3" t="n">
+        <v>38.00130758713434</v>
+      </c>
+      <c r="P3" t="n">
+        <v>47.84081180284991</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>60.22801369947008</v>
+      </c>
+      <c r="R3" t="n">
+        <v>75.82257694815011</v>
+      </c>
+      <c r="S3" t="n">
+        <v>95.45496890774481</v>
+      </c>
+      <c r="T3" t="n">
+        <v>120.17068603998207</v>
+      </c>
+      <c r="U3" t="n">
+        <v>151.285930408472</v>
+      </c>
+      <c r="V3" t="n">
+        <v>190.45770223814935</v>
+      </c>
+      <c r="W3" t="n">
+        <v>239.77204121953307</v>
+      </c>
+      <c r="X3" t="n">
+        <v>301.8551157290287</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>380.01307587134346</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>478.40811802849913</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>602.2801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>758.2257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>954.5496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1201.7068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1512.8593040847202</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1904.5770223814934</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2397.7204121953305</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3018.551157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3800.1307587134343</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -983,6 +1282,317 @@
         <v>-0.07166206814084451</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.51285930408472</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.9045770223814935</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.3977204121953304</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.018551157290287</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.8001307587134345</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.784081180284992</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.022801369947008</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.582257694815012</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.545496890774482</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.017068603998208</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.128593040847202</v>
+      </c>
+      <c r="L3" t="n">
+        <v>19.045770223814934</v>
+      </c>
+      <c r="M3" t="n">
+        <v>23.977204121953307</v>
+      </c>
+      <c r="N3" t="n">
+        <v>30.18551157290287</v>
+      </c>
+      <c r="O3" t="n">
+        <v>38.00130758713434</v>
+      </c>
+      <c r="P3" t="n">
+        <v>47.84081180284991</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>60.22801369947008</v>
+      </c>
+      <c r="R3" t="n">
+        <v>75.82257694815011</v>
+      </c>
+      <c r="S3" t="n">
+        <v>95.45496890774481</v>
+      </c>
+      <c r="T3" t="n">
+        <v>120.17068603998207</v>
+      </c>
+      <c r="U3" t="n">
+        <v>151.285930408472</v>
+      </c>
+      <c r="V3" t="n">
+        <v>190.45770223814935</v>
+      </c>
+      <c r="W3" t="n">
+        <v>239.77204121953307</v>
+      </c>
+      <c r="X3" t="n">
+        <v>301.8551157290287</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>380.01307587134346</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>478.40811802849913</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>602.2801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>758.2257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>954.5496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1201.7068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1512.8593040847202</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1904.5770223814934</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2397.7204121953305</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3018.551157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3800.1307587134343</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.51285930408472</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.9045770223814935</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.3977204121953304</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.018551157290287</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.8001307587134345</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.784081180284992</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.022801369947008</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.582257694815012</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.545496890774482</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.017068603998208</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.128593040847202</v>
+      </c>
+      <c r="L3" t="n">
+        <v>19.045770223814934</v>
+      </c>
+      <c r="M3" t="n">
+        <v>23.977204121953307</v>
+      </c>
+      <c r="N3" t="n">
+        <v>30.18551157290287</v>
+      </c>
+      <c r="O3" t="n">
+        <v>38.00130758713434</v>
+      </c>
+      <c r="P3" t="n">
+        <v>47.84081180284991</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>60.22801369947008</v>
+      </c>
+      <c r="R3" t="n">
+        <v>75.82257694815011</v>
+      </c>
+      <c r="S3" t="n">
+        <v>95.45496890774481</v>
+      </c>
+      <c r="T3" t="n">
+        <v>120.17068603998207</v>
+      </c>
+      <c r="U3" t="n">
+        <v>151.285930408472</v>
+      </c>
+      <c r="V3" t="n">
+        <v>190.45770223814935</v>
+      </c>
+      <c r="W3" t="n">
+        <v>239.77204121953307</v>
+      </c>
+      <c r="X3" t="n">
+        <v>301.8551157290287</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>380.01307587134346</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>478.40811802849913</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>602.2801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>758.2257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>954.5496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1201.7068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1512.8593040847202</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1904.5770223814934</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2397.7204121953305</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3018.551157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3800.1307587134343</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
